--- a/SampleData/hospital_data.xlsx
+++ b/SampleData/hospital_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/CS480/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF2102F1-0C27-9040-9A4D-E5E88919D4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71BBC35B-D65E-2B49-AD8B-BB6BEBFF8F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2360" yWindow="-19080" windowWidth="28040" windowHeight="16560" activeTab="4" xr2:uid="{FEB6A008-E0EA-F64B-9B35-CEAFA73D06DB}"/>
+    <workbookView xWindow="-2700" yWindow="-16620" windowWidth="28040" windowHeight="16560" activeTab="3" xr2:uid="{FEB6A008-E0EA-F64B-9B35-CEAFA73D06DB}"/>
   </bookViews>
   <sheets>
     <sheet name="physician" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BE13C0-8C57-F14A-A9AA-BF33F905D8E0}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,10 +1870,10 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2193,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BD0CD-4CDF-2B4A-B649-6CF39C7051C4}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2522,13 +2522,13 @@
       <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2536,13 +2536,13 @@
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2550,13 +2550,13 @@
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2564,13 +2564,13 @@
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2578,13 +2578,13 @@
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2592,13 +2592,13 @@
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>143</v>
       </c>
     </row>
